--- a/data/pca/factorExposure/factorExposure_2015-01-30.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-30.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01651639925328133</v>
+        <v>0.01098757171620923</v>
       </c>
       <c r="C2">
-        <v>-0.03954184294607053</v>
+        <v>0.05535110122940184</v>
       </c>
       <c r="D2">
-        <v>0.11023451045628</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.04513010657834001</v>
+      </c>
+      <c r="E2">
+        <v>-0.09922546399041443</v>
+      </c>
+      <c r="F2">
+        <v>0.1087794409536218</v>
+      </c>
+      <c r="G2">
+        <v>-0.1145568981850056</v>
+      </c>
+      <c r="H2">
+        <v>-0.03310856327476374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03862548820001403</v>
+        <v>0.02023871501575217</v>
       </c>
       <c r="C4">
-        <v>-0.09707707269709566</v>
+        <v>0.1265979251254422</v>
       </c>
       <c r="D4">
-        <v>0.06959982967859739</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.03259422946616668</v>
+      </c>
+      <c r="E4">
+        <v>-0.09234248482900996</v>
+      </c>
+      <c r="F4">
+        <v>0.1182602289805125</v>
+      </c>
+      <c r="G4">
+        <v>0.04833665566254863</v>
+      </c>
+      <c r="H4">
+        <v>-0.04597524420309188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02971949959157992</v>
+        <v>0.03493043289297465</v>
       </c>
       <c r="C6">
-        <v>-0.03398139787542731</v>
+        <v>0.04901673987236351</v>
       </c>
       <c r="D6">
-        <v>0.08210392877594708</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.02649546797874525</v>
+      </c>
+      <c r="E6">
+        <v>-0.1134817621145647</v>
+      </c>
+      <c r="F6">
+        <v>0.06952450504553928</v>
+      </c>
+      <c r="G6">
+        <v>-0.001244788923944902</v>
+      </c>
+      <c r="H6">
+        <v>0.0391030241449014</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.005628967182866874</v>
+        <v>0.005988744952859787</v>
       </c>
       <c r="C7">
-        <v>-0.03485976822515277</v>
+        <v>0.04946867582857243</v>
       </c>
       <c r="D7">
-        <v>0.06927932037568067</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01585959016171565</v>
+      </c>
+      <c r="E7">
+        <v>-0.09556290531486648</v>
+      </c>
+      <c r="F7">
+        <v>0.02734075107818908</v>
+      </c>
+      <c r="G7">
+        <v>0.01711790044007435</v>
+      </c>
+      <c r="H7">
+        <v>-0.009019255721057761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.001100069747359437</v>
+        <v>-0.004911877303041047</v>
       </c>
       <c r="C8">
-        <v>-0.04036952232485527</v>
+        <v>0.05193077403155942</v>
       </c>
       <c r="D8">
-        <v>0.06240257283736944</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.0004030473217257759</v>
+      </c>
+      <c r="E8">
+        <v>-0.06666062404733097</v>
+      </c>
+      <c r="F8">
+        <v>0.0738693051935583</v>
+      </c>
+      <c r="G8">
+        <v>-0.02675166777415525</v>
+      </c>
+      <c r="H8">
+        <v>-0.06850011104801006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02660720491341221</v>
+        <v>0.01293881636111329</v>
       </c>
       <c r="C9">
-        <v>-0.08621599201035339</v>
+        <v>0.1052508190919784</v>
       </c>
       <c r="D9">
-        <v>0.07789930198920726</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.03042900423177677</v>
+      </c>
+      <c r="E9">
+        <v>-0.08242362542325049</v>
+      </c>
+      <c r="F9">
+        <v>0.08520556067310979</v>
+      </c>
+      <c r="G9">
+        <v>0.0246100732900042</v>
+      </c>
+      <c r="H9">
+        <v>-0.001516285501362052</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.2177639648064096</v>
+        <v>0.2437296308585824</v>
       </c>
       <c r="C10">
-        <v>0.1188314297222878</v>
+        <v>-0.08062854387568905</v>
       </c>
       <c r="D10">
-        <v>-0.0496388485842039</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.007744890326935276</v>
+      </c>
+      <c r="E10">
+        <v>0.03328666455351161</v>
+      </c>
+      <c r="F10">
+        <v>0.01194569687452246</v>
+      </c>
+      <c r="G10">
+        <v>0.001949656003923157</v>
+      </c>
+      <c r="H10">
+        <v>-0.000249456189884625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.005700975379287546</v>
+        <v>0.009104336483254167</v>
       </c>
       <c r="C11">
-        <v>-0.03786907986397432</v>
+        <v>0.06011389904162917</v>
       </c>
       <c r="D11">
-        <v>0.04218036827501456</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.009144007708715988</v>
+      </c>
+      <c r="E11">
+        <v>-0.06079002226941344</v>
+      </c>
+      <c r="F11">
+        <v>0.01842809382085814</v>
+      </c>
+      <c r="G11">
+        <v>0.01790345995747958</v>
+      </c>
+      <c r="H11">
+        <v>0.001337521679450969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.005052504993594979</v>
+        <v>0.009516568804547616</v>
       </c>
       <c r="C12">
-        <v>-0.04059568245020129</v>
+        <v>0.05053912129751788</v>
       </c>
       <c r="D12">
-        <v>0.04946526578110402</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.01806247869332845</v>
+      </c>
+      <c r="E12">
+        <v>-0.05564877863584091</v>
+      </c>
+      <c r="F12">
+        <v>0.01769942498033131</v>
+      </c>
+      <c r="G12">
+        <v>0.0001094861579748033</v>
+      </c>
+      <c r="H12">
+        <v>0.02786404936879204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01440006274972731</v>
+        <v>0.004347714703810169</v>
       </c>
       <c r="C13">
-        <v>-0.04922589183347559</v>
+        <v>0.08268921357214642</v>
       </c>
       <c r="D13">
-        <v>0.110844606122965</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06571814221736734</v>
+      </c>
+      <c r="E13">
+        <v>-0.1234872054286293</v>
+      </c>
+      <c r="F13">
+        <v>0.05019114727302829</v>
+      </c>
+      <c r="G13">
+        <v>-0.08194178657145358</v>
+      </c>
+      <c r="H13">
+        <v>0.06276915224027549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.009942973983371942</v>
+        <v>0.002518907410060652</v>
       </c>
       <c r="C14">
-        <v>-0.02203051612282822</v>
+        <v>0.04303247322179829</v>
       </c>
       <c r="D14">
-        <v>0.05668791617628167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.005698729015639675</v>
+      </c>
+      <c r="E14">
+        <v>-0.109366050046752</v>
+      </c>
+      <c r="F14">
+        <v>0.0549508993299864</v>
+      </c>
+      <c r="G14">
+        <v>-0.02854006028159681</v>
+      </c>
+      <c r="H14">
+        <v>0.03938204418235801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002885986682641329</v>
+        <v>-0.004906938559821306</v>
       </c>
       <c r="C15">
-        <v>-0.01446908939271714</v>
+        <v>0.03830244660348405</v>
       </c>
       <c r="D15">
-        <v>0.04989814294364073</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02321927005772112</v>
+      </c>
+      <c r="E15">
+        <v>-0.0691762084838687</v>
+      </c>
+      <c r="F15">
+        <v>0.02544943944510508</v>
+      </c>
+      <c r="G15">
+        <v>-0.008659669432619877</v>
+      </c>
+      <c r="H15">
+        <v>-0.0116580197017957</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005571633104565066</v>
+        <v>0.008739780410800847</v>
       </c>
       <c r="C16">
-        <v>-0.03724552610917208</v>
+        <v>0.05211705847228462</v>
       </c>
       <c r="D16">
-        <v>0.04580192063745807</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.0139070248343505</v>
+      </c>
+      <c r="E16">
+        <v>-0.0580897414299093</v>
+      </c>
+      <c r="F16">
+        <v>0.01630272860574429</v>
+      </c>
+      <c r="G16">
+        <v>0.02543884240798277</v>
+      </c>
+      <c r="H16">
+        <v>0.01937097709598689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.004597741044143566</v>
+        <v>0.0008043102930364493</v>
       </c>
       <c r="C19">
-        <v>-0.02740522807733064</v>
+        <v>0.02044451756432491</v>
       </c>
       <c r="D19">
-        <v>0.04357816331424669</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01327260050226141</v>
+      </c>
+      <c r="E19">
+        <v>-0.009713396145979327</v>
+      </c>
+      <c r="F19">
+        <v>-0.0001193287877741297</v>
+      </c>
+      <c r="G19">
+        <v>-0.03455663661354898</v>
+      </c>
+      <c r="H19">
+        <v>-0.01092519950489304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.0009098324307060867</v>
+        <v>0.003415963619197122</v>
       </c>
       <c r="C20">
-        <v>-0.03619094989950215</v>
+        <v>0.05753640221039739</v>
       </c>
       <c r="D20">
-        <v>0.05139848176568783</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.02613044675499729</v>
+      </c>
+      <c r="E20">
+        <v>-0.07434866480043341</v>
+      </c>
+      <c r="F20">
+        <v>0.02874293985525585</v>
+      </c>
+      <c r="G20">
+        <v>0.02607324227543811</v>
+      </c>
+      <c r="H20">
+        <v>0.006784703593996571</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006674834604351461</v>
+        <v>0.003557957103759792</v>
       </c>
       <c r="C21">
-        <v>-0.05936025929777474</v>
+        <v>0.07031999405444234</v>
       </c>
       <c r="D21">
-        <v>0.07664284358265953</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02454887138067631</v>
+      </c>
+      <c r="E21">
+        <v>-0.08057983576300165</v>
+      </c>
+      <c r="F21">
+        <v>0.09173431103931401</v>
+      </c>
+      <c r="G21">
+        <v>-0.1106641154840175</v>
+      </c>
+      <c r="H21">
+        <v>0.05255737588450853</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.0006655883888395806</v>
+        <v>-0.01087745198430449</v>
       </c>
       <c r="C22">
-        <v>-0.06972151913463603</v>
+        <v>0.09935107101809797</v>
       </c>
       <c r="D22">
-        <v>0.1859576820427583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1217468701862632</v>
+      </c>
+      <c r="E22">
+        <v>-0.1870610248789816</v>
+      </c>
+      <c r="F22">
+        <v>0.1806758733575647</v>
+      </c>
+      <c r="G22">
+        <v>-0.05180021307881352</v>
+      </c>
+      <c r="H22">
+        <v>-0.2565798090784673</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.0007834715307901676</v>
+        <v>-0.00784134913120531</v>
       </c>
       <c r="C23">
-        <v>-0.07078779655711376</v>
+        <v>0.1018197341277056</v>
       </c>
       <c r="D23">
-        <v>0.1850255532661509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.125225666593053</v>
+      </c>
+      <c r="E23">
+        <v>-0.1850235608059027</v>
+      </c>
+      <c r="F23">
+        <v>0.1806402082558578</v>
+      </c>
+      <c r="G23">
+        <v>-0.05194558092542259</v>
+      </c>
+      <c r="H23">
+        <v>-0.2467179246344269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.009772399746565585</v>
+        <v>0.01022549286731661</v>
       </c>
       <c r="C24">
-        <v>-0.06075265668646661</v>
+        <v>0.07041859132628218</v>
       </c>
       <c r="D24">
-        <v>0.05631878337031021</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.005698541145997584</v>
+      </c>
+      <c r="E24">
+        <v>-0.06473346491657436</v>
+      </c>
+      <c r="F24">
+        <v>0.01928800170113283</v>
+      </c>
+      <c r="G24">
+        <v>0.004883316136098219</v>
+      </c>
+      <c r="H24">
+        <v>0.00504166524032342</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.01011692235687007</v>
+        <v>0.01383819103368002</v>
       </c>
       <c r="C25">
-        <v>-0.0515954136899115</v>
+        <v>0.06402316738690356</v>
       </c>
       <c r="D25">
-        <v>0.0435177223331703</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.0151566564717622</v>
+      </c>
+      <c r="E25">
+        <v>-0.05052646883806972</v>
+      </c>
+      <c r="F25">
+        <v>0.02017202112741079</v>
+      </c>
+      <c r="G25">
+        <v>0.01874321393126862</v>
+      </c>
+      <c r="H25">
+        <v>0.008703270837600405</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.007592575237395838</v>
+        <v>0.01634818399710568</v>
       </c>
       <c r="C26">
-        <v>-0.0264140869707808</v>
+        <v>0.04427925112966975</v>
       </c>
       <c r="D26">
-        <v>0.0475015491559773</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.00900741018422475</v>
+      </c>
+      <c r="E26">
+        <v>-0.07554447996114412</v>
+      </c>
+      <c r="F26">
+        <v>0.05795801741958984</v>
+      </c>
+      <c r="G26">
+        <v>-0.02038550217014756</v>
+      </c>
+      <c r="H26">
+        <v>-0.004736179660518492</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2973792068863322</v>
+        <v>0.3128309272442885</v>
       </c>
       <c r="C28">
-        <v>0.1269110862648121</v>
+        <v>-0.0916459929701961</v>
       </c>
       <c r="D28">
-        <v>-0.01592727186304783</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01418135847129219</v>
+      </c>
+      <c r="E28">
+        <v>0.05314151552169387</v>
+      </c>
+      <c r="F28">
+        <v>0.0604794475423095</v>
+      </c>
+      <c r="G28">
+        <v>-0.02783923967371103</v>
+      </c>
+      <c r="H28">
+        <v>-0.0707166151780496</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-3.10161985111236e-05</v>
+        <v>0.002678146709159564</v>
       </c>
       <c r="C29">
-        <v>-0.0275640068705319</v>
+        <v>0.0500345909154994</v>
       </c>
       <c r="D29">
-        <v>0.06030480343420971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.007371634267505135</v>
+      </c>
+      <c r="E29">
+        <v>-0.1202020130100076</v>
+      </c>
+      <c r="F29">
+        <v>0.05828341244785935</v>
+      </c>
+      <c r="G29">
+        <v>-0.02573573349117836</v>
+      </c>
+      <c r="H29">
+        <v>0.05818649617328361</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02030206588373124</v>
+        <v>0.01672076125352078</v>
       </c>
       <c r="C30">
-        <v>-0.08842666587087313</v>
+        <v>0.1122929049186076</v>
       </c>
       <c r="D30">
-        <v>0.1334451364368617</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0332758601548664</v>
+      </c>
+      <c r="E30">
+        <v>-0.1449742135167404</v>
+      </c>
+      <c r="F30">
+        <v>0.05088664901037295</v>
+      </c>
+      <c r="G30">
+        <v>0.02034857040905128</v>
+      </c>
+      <c r="H30">
+        <v>-0.00998890045938302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.02172854374068289</v>
+        <v>0.009811587411259587</v>
       </c>
       <c r="C31">
-        <v>-0.09689089417737781</v>
+        <v>0.1013416196213058</v>
       </c>
       <c r="D31">
-        <v>0.04025570080863031</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.002363823478555283</v>
+      </c>
+      <c r="E31">
+        <v>-0.02529845232086465</v>
+      </c>
+      <c r="F31">
+        <v>0.01056435513346124</v>
+      </c>
+      <c r="G31">
+        <v>-0.01915081547921591</v>
+      </c>
+      <c r="H31">
+        <v>-0.02106405562027321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01565840863157621</v>
+        <v>0.01277119835831761</v>
       </c>
       <c r="C32">
-        <v>-0.05502794982805038</v>
+        <v>0.06409120187544949</v>
       </c>
       <c r="D32">
-        <v>0.07616942896383888</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05259392352663333</v>
+      </c>
+      <c r="E32">
+        <v>-0.04163685466492056</v>
+      </c>
+      <c r="F32">
+        <v>0.07502549761570408</v>
+      </c>
+      <c r="G32">
+        <v>-0.04529158205915947</v>
+      </c>
+      <c r="H32">
+        <v>0.004855868667076131</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.002544536280252273</v>
+        <v>0.007350558661444027</v>
       </c>
       <c r="C33">
-        <v>-0.05577090177168516</v>
+        <v>0.07969494019870804</v>
       </c>
       <c r="D33">
-        <v>0.07867191697166578</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.03256790026764213</v>
+      </c>
+      <c r="E33">
+        <v>-0.09833310201870307</v>
+      </c>
+      <c r="F33">
+        <v>0.04742041436025159</v>
+      </c>
+      <c r="G33">
+        <v>-0.003330141870131446</v>
+      </c>
+      <c r="H33">
+        <v>0.007259358230421168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.003706104356090536</v>
+        <v>0.008347927947080534</v>
       </c>
       <c r="C34">
-        <v>-0.05521562661177816</v>
+        <v>0.0582806164531373</v>
       </c>
       <c r="D34">
-        <v>0.06031981425909158</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.006250598268431888</v>
+      </c>
+      <c r="E34">
+        <v>-0.05372400566439179</v>
+      </c>
+      <c r="F34">
+        <v>-0.008743846424721518</v>
+      </c>
+      <c r="G34">
+        <v>-0.006852604142369508</v>
+      </c>
+      <c r="H34">
+        <v>0.0103449774896246</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.0007389786648337038</v>
+        <v>0.004196158797605525</v>
       </c>
       <c r="C35">
-        <v>-0.0006605755528409267</v>
+        <v>0.02015859425598883</v>
       </c>
       <c r="D35">
-        <v>0.004091921278694338</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01017686053730294</v>
+      </c>
+      <c r="E35">
+        <v>-0.03622321875349695</v>
+      </c>
+      <c r="F35">
+        <v>0.03152263452324413</v>
+      </c>
+      <c r="G35">
+        <v>0.001856972317242159</v>
+      </c>
+      <c r="H35">
+        <v>0.0235549529808191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.005653580486014741</v>
+        <v>0.01014511154100141</v>
       </c>
       <c r="C36">
-        <v>-0.02631585548109825</v>
+        <v>0.03721579619053834</v>
       </c>
       <c r="D36">
-        <v>0.04056561454913474</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.002976082152569981</v>
+      </c>
+      <c r="E36">
+        <v>-0.0650815004961163</v>
+      </c>
+      <c r="F36">
+        <v>0.05310928254815821</v>
+      </c>
+      <c r="G36">
+        <v>-0.00859468370963167</v>
+      </c>
+      <c r="H36">
+        <v>0.001328427908260376</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.003657875328181824</v>
+        <v>0.006301613260066922</v>
       </c>
       <c r="C38">
-        <v>-0.02000999775886221</v>
+        <v>0.04018209585904327</v>
       </c>
       <c r="D38">
-        <v>0.06897764516869874</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02797279249223555</v>
+      </c>
+      <c r="E38">
+        <v>-0.07939674199389572</v>
+      </c>
+      <c r="F38">
+        <v>0.01828200348128962</v>
+      </c>
+      <c r="G38">
+        <v>0.002696907006706712</v>
+      </c>
+      <c r="H38">
+        <v>-0.05249568066678298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.008049100744679715</v>
+        <v>0.007471025255607357</v>
       </c>
       <c r="C39">
-        <v>-0.06514249408019511</v>
+        <v>0.09662187386404307</v>
       </c>
       <c r="D39">
-        <v>0.09728313630096225</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.008244935226068782</v>
+      </c>
+      <c r="E39">
+        <v>-0.1221499902490982</v>
+      </c>
+      <c r="F39">
+        <v>0.01961453460365711</v>
+      </c>
+      <c r="G39">
+        <v>0.006178902905149256</v>
+      </c>
+      <c r="H39">
+        <v>0.03028258618158255</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01467217011129472</v>
+        <v>0.01407454647725587</v>
       </c>
       <c r="C40">
-        <v>-0.03762820911744284</v>
+        <v>0.05342754739753634</v>
       </c>
       <c r="D40">
-        <v>0.1046313956560812</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02942556681067059</v>
+      </c>
+      <c r="E40">
+        <v>-0.1032645966836479</v>
+      </c>
+      <c r="F40">
+        <v>-0.002177095054899229</v>
+      </c>
+      <c r="G40">
+        <v>-0.07411231787786904</v>
+      </c>
+      <c r="H40">
+        <v>-0.01716099282375741</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.007263670785974425</v>
+        <v>0.01551192917359993</v>
       </c>
       <c r="C41">
-        <v>-0.01807641338694641</v>
+        <v>0.03469555965071917</v>
       </c>
       <c r="D41">
-        <v>0.01986947703011342</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.009606068400552172</v>
+      </c>
+      <c r="E41">
+        <v>-0.02748342568978817</v>
+      </c>
+      <c r="F41">
+        <v>0.01077471192903975</v>
+      </c>
+      <c r="G41">
+        <v>0.001975768352603333</v>
+      </c>
+      <c r="H41">
+        <v>-0.005973825337471383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.003157594809362763</v>
+        <v>0.007613071216346735</v>
       </c>
       <c r="C43">
-        <v>-0.01562092073726087</v>
+        <v>0.02956913250754457</v>
       </c>
       <c r="D43">
-        <v>0.03437215477765276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01205766603076013</v>
+      </c>
+      <c r="E43">
+        <v>-0.04145940702185304</v>
+      </c>
+      <c r="F43">
+        <v>0.01348686152626987</v>
+      </c>
+      <c r="G43">
+        <v>0.005987000184341901</v>
+      </c>
+      <c r="H43">
+        <v>-0.01181874451023809</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01492501820569623</v>
+        <v>0.007687951117150836</v>
       </c>
       <c r="C44">
-        <v>-0.04526142324234921</v>
+        <v>0.06696838396815093</v>
       </c>
       <c r="D44">
-        <v>0.07586411045205017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.02016135110365612</v>
+      </c>
+      <c r="E44">
+        <v>-0.1083378270198924</v>
+      </c>
+      <c r="F44">
+        <v>0.06056383942132723</v>
+      </c>
+      <c r="G44">
+        <v>-0.004062563081569031</v>
+      </c>
+      <c r="H44">
+        <v>-0.02222558003266318</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.001575237186846229</v>
+        <v>-0.001016910106722054</v>
       </c>
       <c r="C46">
-        <v>-0.0359783018899962</v>
+        <v>0.04912619090472636</v>
       </c>
       <c r="D46">
-        <v>0.06101974318122511</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0003876376420416907</v>
+      </c>
+      <c r="E46">
+        <v>-0.09008442951215133</v>
+      </c>
+      <c r="F46">
+        <v>0.05286601339558798</v>
+      </c>
+      <c r="G46">
+        <v>-0.01722723803557812</v>
+      </c>
+      <c r="H46">
+        <v>0.01219772926507891</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.05227594213142846</v>
+        <v>0.02910343563275461</v>
       </c>
       <c r="C47">
-        <v>-0.128747019452635</v>
+        <v>0.1271441621768839</v>
       </c>
       <c r="D47">
-        <v>0.04607166766894445</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004202751081926998</v>
+      </c>
+      <c r="E47">
+        <v>-0.001383573607264894</v>
+      </c>
+      <c r="F47">
+        <v>-0.01285838926136418</v>
+      </c>
+      <c r="G47">
+        <v>-0.006099007166636345</v>
+      </c>
+      <c r="H47">
+        <v>-0.02720336486391708</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004200106201551959</v>
+        <v>0.01218028006147269</v>
       </c>
       <c r="C48">
-        <v>-0.02956085476710238</v>
+        <v>0.04453271475696156</v>
       </c>
       <c r="D48">
-        <v>0.04324123587329069</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.00753201381825381</v>
+      </c>
+      <c r="E48">
+        <v>-0.06982611374214649</v>
+      </c>
+      <c r="F48">
+        <v>0.07246523084481442</v>
+      </c>
+      <c r="G48">
+        <v>-0.009310353887181069</v>
+      </c>
+      <c r="H48">
+        <v>-0.008299732154377768</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.002697545007624411</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006091815117027664</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.001883589689750933</v>
+      </c>
+      <c r="E49">
+        <v>-0.002638917332897568</v>
+      </c>
+      <c r="F49">
+        <v>-0.01302190091030441</v>
+      </c>
+      <c r="G49">
+        <v>0.005629569303281369</v>
+      </c>
+      <c r="H49">
+        <v>0.01588954746450478</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.02466566999615797</v>
+        <v>0.01340666137778243</v>
       </c>
       <c r="C50">
-        <v>-0.07091840833426198</v>
+        <v>0.08314738909402548</v>
       </c>
       <c r="D50">
-        <v>0.05872747635185308</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.01180899051292078</v>
+      </c>
+      <c r="E50">
+        <v>-0.03991584815559702</v>
+      </c>
+      <c r="F50">
+        <v>0.007157697110409264</v>
+      </c>
+      <c r="G50">
+        <v>-0.01071804343054611</v>
+      </c>
+      <c r="H50">
+        <v>-0.03319506383091823</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.006121285511357179</v>
+        <v>-0.004641903522708987</v>
       </c>
       <c r="C51">
-        <v>-0.01036227113065919</v>
+        <v>0.02503381359546504</v>
       </c>
       <c r="D51">
-        <v>0.049335864507325</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.004086810126837308</v>
+      </c>
+      <c r="E51">
+        <v>-0.06128481049585321</v>
+      </c>
+      <c r="F51">
+        <v>0.05043516222899553</v>
+      </c>
+      <c r="G51">
+        <v>-0.02804489767845728</v>
+      </c>
+      <c r="H51">
+        <v>-0.00253249727122985</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08532296757272943</v>
+        <v>0.05924643111830058</v>
       </c>
       <c r="C53">
-        <v>-0.1581392029101447</v>
+        <v>0.1677342831733764</v>
       </c>
       <c r="D53">
-        <v>-0.01012662312749783</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02783732589038066</v>
+      </c>
+      <c r="E53">
+        <v>0.05353427664009428</v>
+      </c>
+      <c r="F53">
+        <v>-0.002839989314788401</v>
+      </c>
+      <c r="G53">
+        <v>-0.01676619280852506</v>
+      </c>
+      <c r="H53">
+        <v>-0.0226817521200978</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003663475327286429</v>
+        <v>0.01035114012439708</v>
       </c>
       <c r="C54">
-        <v>-0.03439721842427503</v>
+        <v>0.05060495666575641</v>
       </c>
       <c r="D54">
-        <v>0.08040043152901363</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0332458023642272</v>
+      </c>
+      <c r="E54">
+        <v>-0.07631186351302385</v>
+      </c>
+      <c r="F54">
+        <v>0.02978460751526037</v>
+      </c>
+      <c r="G54">
+        <v>-0.01137974636640548</v>
+      </c>
+      <c r="H54">
+        <v>-0.01542153729111005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.06828770666329081</v>
+        <v>0.04006174025440588</v>
       </c>
       <c r="C55">
-        <v>-0.1269296694430023</v>
+        <v>0.1259091680274843</v>
       </c>
       <c r="D55">
-        <v>-0.002762476552567543</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.05064805228629198</v>
+      </c>
+      <c r="E55">
+        <v>0.04158470496991272</v>
+      </c>
+      <c r="F55">
+        <v>-0.02980483854558855</v>
+      </c>
+      <c r="G55">
+        <v>-0.03644085809934175</v>
+      </c>
+      <c r="H55">
+        <v>-0.03062726788821377</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1026994715153727</v>
+        <v>0.0605193418111209</v>
       </c>
       <c r="C56">
-        <v>-0.1846444960616784</v>
+        <v>0.1934303756247387</v>
       </c>
       <c r="D56">
-        <v>0.0165263651229653</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04409721756033074</v>
+      </c>
+      <c r="E56">
+        <v>0.06972793375857791</v>
+      </c>
+      <c r="F56">
+        <v>-0.04747813183420835</v>
+      </c>
+      <c r="G56">
+        <v>-0.07893310451014114</v>
+      </c>
+      <c r="H56">
+        <v>-0.07201225003579642</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01281103052460738</v>
+        <v>0.008788322331385472</v>
       </c>
       <c r="C58">
-        <v>-0.04929136456353619</v>
+        <v>0.09917580224449946</v>
       </c>
       <c r="D58">
-        <v>0.1643595080332606</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1267392699477595</v>
+      </c>
+      <c r="E58">
+        <v>-0.1780538675664856</v>
+      </c>
+      <c r="F58">
+        <v>0.2217311040435359</v>
+      </c>
+      <c r="G58">
+        <v>-0.03284881947639355</v>
+      </c>
+      <c r="H58">
+        <v>-0.1465856885124657</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.2244438261095209</v>
+        <v>0.2626286744870229</v>
       </c>
       <c r="C59">
-        <v>0.08344329061607561</v>
+        <v>-0.04707790822595801</v>
       </c>
       <c r="D59">
-        <v>0.0433573927422518</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03483662343642503</v>
+      </c>
+      <c r="E59">
+        <v>-0.0113091232713949</v>
+      </c>
+      <c r="F59">
+        <v>0.02978413561412122</v>
+      </c>
+      <c r="G59">
+        <v>-0.04278910433439811</v>
+      </c>
+      <c r="H59">
+        <v>0.005574875751575658</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1506970516483948</v>
+        <v>0.1513594380526875</v>
       </c>
       <c r="C60">
-        <v>-0.1267257943400266</v>
+        <v>0.1593160635421864</v>
       </c>
       <c r="D60">
-        <v>0.1254817478735838</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.003847756527684495</v>
+      </c>
+      <c r="E60">
+        <v>-0.1262850702377115</v>
+      </c>
+      <c r="F60">
+        <v>-0.2017864773301173</v>
+      </c>
+      <c r="G60">
+        <v>0.098758150252187</v>
+      </c>
+      <c r="H60">
+        <v>0.2343260295508028</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.01357448919033837</v>
+        <v>0.01364964704458621</v>
       </c>
       <c r="C61">
-        <v>-0.05962502917096767</v>
+        <v>0.08360226468353987</v>
       </c>
       <c r="D61">
-        <v>0.06851295037679239</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.009238079302221792</v>
+      </c>
+      <c r="E61">
+        <v>-0.08187546415273739</v>
+      </c>
+      <c r="F61">
+        <v>0.01091736995535543</v>
+      </c>
+      <c r="G61">
+        <v>-0.001294832090631613</v>
+      </c>
+      <c r="H61">
+        <v>0.01330204045492888</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.000146864867652792</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0003761310734722424</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.001493450207221318</v>
+      </c>
+      <c r="E62">
+        <v>-0.000576732389329824</v>
+      </c>
+      <c r="F62">
+        <v>0.002080678478555045</v>
+      </c>
+      <c r="G62">
+        <v>-0.001040733240168261</v>
+      </c>
+      <c r="H62">
+        <v>-0.0007661932036940233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.005586981420104072</v>
+        <v>0.01558439407456905</v>
       </c>
       <c r="C63">
-        <v>-0.03658716423089652</v>
+        <v>0.05546241110304258</v>
       </c>
       <c r="D63">
-        <v>0.06297294648500079</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.008852943856283223</v>
+      </c>
+      <c r="E63">
+        <v>-0.08911513421568382</v>
+      </c>
+      <c r="F63">
+        <v>0.03034870975069787</v>
+      </c>
+      <c r="G63">
+        <v>-0.0002608551130874387</v>
+      </c>
+      <c r="H63">
+        <v>0.01303287557901645</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03288116486399784</v>
+        <v>0.01492506893549128</v>
       </c>
       <c r="C64">
-        <v>-0.103396170384581</v>
+        <v>0.1040135635326584</v>
       </c>
       <c r="D64">
-        <v>0.01389862808197577</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01352846854769976</v>
+      </c>
+      <c r="E64">
+        <v>-0.02353940434684082</v>
+      </c>
+      <c r="F64">
+        <v>0.02663282327482551</v>
+      </c>
+      <c r="G64">
+        <v>0.03493628332018128</v>
+      </c>
+      <c r="H64">
+        <v>0.004613259265775553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.02563406848096612</v>
+        <v>0.02728050359446788</v>
       </c>
       <c r="C65">
-        <v>-0.0297992314586436</v>
+        <v>0.05575052354854247</v>
       </c>
       <c r="D65">
-        <v>0.08660999430356403</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.04408188223254177</v>
+      </c>
+      <c r="E65">
+        <v>-0.1120241124079129</v>
+      </c>
+      <c r="F65">
+        <v>0.004875189799606236</v>
+      </c>
+      <c r="G65">
+        <v>0.05880998982859603</v>
+      </c>
+      <c r="H65">
+        <v>0.04010743023226227</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.01448895009998051</v>
+        <v>0.009102391726568237</v>
       </c>
       <c r="C66">
-        <v>-0.08286751689300198</v>
+        <v>0.1209493614711385</v>
       </c>
       <c r="D66">
-        <v>0.1180558248579891</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.03796214092022972</v>
+      </c>
+      <c r="E66">
+        <v>-0.1261318830750618</v>
+      </c>
+      <c r="F66">
+        <v>0.02309523495750177</v>
+      </c>
+      <c r="G66">
+        <v>-0.005768038401585986</v>
+      </c>
+      <c r="H66">
+        <v>0.002223343487127232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01340985144478628</v>
+        <v>0.01506136645895613</v>
       </c>
       <c r="C67">
-        <v>-0.02239297109702544</v>
+        <v>0.03930959893000135</v>
       </c>
       <c r="D67">
-        <v>0.04065217382827109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01022889144504053</v>
+      </c>
+      <c r="E67">
+        <v>-0.05555608106595063</v>
+      </c>
+      <c r="F67">
+        <v>-0.01522744089591751</v>
+      </c>
+      <c r="G67">
+        <v>0.009918477229499905</v>
+      </c>
+      <c r="H67">
+        <v>-0.03400711463977583</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.2367766793501716</v>
+        <v>0.2803705134661967</v>
       </c>
       <c r="C68">
-        <v>0.09829605310528423</v>
+        <v>-0.06138777061183134</v>
       </c>
       <c r="D68">
-        <v>0.02404486863825975</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.02706957419355282</v>
+      </c>
+      <c r="E68">
+        <v>-0.02914366579545607</v>
+      </c>
+      <c r="F68">
+        <v>0.04053889028332792</v>
+      </c>
+      <c r="G68">
+        <v>-0.02282040017440519</v>
+      </c>
+      <c r="H68">
+        <v>-0.03232888938812552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.03544512166506149</v>
+        <v>0.01283585826212029</v>
       </c>
       <c r="C69">
-        <v>-0.1301240953533318</v>
+        <v>0.1131617525022855</v>
       </c>
       <c r="D69">
-        <v>0.06187082817787504</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.002065261298648861</v>
+      </c>
+      <c r="E69">
+        <v>-0.01526920882426091</v>
+      </c>
+      <c r="F69">
+        <v>-0.01744974493783987</v>
+      </c>
+      <c r="G69">
+        <v>-0.01059203868116199</v>
+      </c>
+      <c r="H69">
+        <v>-0.01134663646931604</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.251733889618152</v>
+        <v>0.2697002673745439</v>
       </c>
       <c r="C71">
-        <v>0.1174537391576575</v>
+        <v>-0.07710740025618362</v>
       </c>
       <c r="D71">
-        <v>0.01548367869709845</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.009930002084825815</v>
+      </c>
+      <c r="E71">
+        <v>-0.005256561063648662</v>
+      </c>
+      <c r="F71">
+        <v>0.01669131872995286</v>
+      </c>
+      <c r="G71">
+        <v>-0.02704956873137866</v>
+      </c>
+      <c r="H71">
+        <v>-0.05338564262975124</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.08487061363632965</v>
+        <v>0.06378279919594933</v>
       </c>
       <c r="C72">
-        <v>-0.1016214431224027</v>
+        <v>0.1302569725505579</v>
       </c>
       <c r="D72">
-        <v>0.08535282904365599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006851786924749646</v>
+      </c>
+      <c r="E72">
+        <v>-0.07892900316180583</v>
+      </c>
+      <c r="F72">
+        <v>-0.03168953745357237</v>
+      </c>
+      <c r="G72">
+        <v>0.03192343679899536</v>
+      </c>
+      <c r="H72">
+        <v>0.03547705021721801</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.1564086111103832</v>
+        <v>0.1574095500711974</v>
       </c>
       <c r="C73">
-        <v>-0.09753562884573809</v>
+        <v>0.1647676527550332</v>
       </c>
       <c r="D73">
-        <v>0.1829850846034331</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.05316898181730035</v>
+      </c>
+      <c r="E73">
+        <v>-0.2628185779689374</v>
+      </c>
+      <c r="F73">
+        <v>-0.3505077855644945</v>
+      </c>
+      <c r="G73">
+        <v>0.2071372696488832</v>
+      </c>
+      <c r="H73">
+        <v>0.326829895882431</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08074830229273153</v>
+        <v>0.05026168406577215</v>
       </c>
       <c r="C74">
-        <v>-0.1400778370448762</v>
+        <v>0.1407334903391068</v>
       </c>
       <c r="D74">
-        <v>-0.05538804375451711</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04497283446778141</v>
+      </c>
+      <c r="E74">
+        <v>0.07029660552563241</v>
+      </c>
+      <c r="F74">
+        <v>-0.0017051345041563</v>
+      </c>
+      <c r="G74">
+        <v>-0.01327541671349848</v>
+      </c>
+      <c r="H74">
+        <v>-0.02797020164297025</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.1766783406649391</v>
+        <v>0.09735985557586306</v>
       </c>
       <c r="C75">
-        <v>-0.2424239213045489</v>
+        <v>0.2515723751429216</v>
       </c>
       <c r="D75">
-        <v>-0.02991565562206908</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.05779298360974143</v>
+      </c>
+      <c r="E75">
+        <v>0.1671567087497662</v>
+      </c>
+      <c r="F75">
+        <v>-0.1260565011776421</v>
+      </c>
+      <c r="G75">
+        <v>-0.078182626748001</v>
+      </c>
+      <c r="H75">
+        <v>-0.1954135609016404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1062678178508667</v>
+        <v>0.05976830045725259</v>
       </c>
       <c r="C76">
-        <v>-0.1746114282439974</v>
+        <v>0.1818483865796859</v>
       </c>
       <c r="D76">
-        <v>0.00629512603718493</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04279533411079841</v>
+      </c>
+      <c r="E76">
+        <v>0.07241169790160361</v>
+      </c>
+      <c r="F76">
+        <v>-0.0677915332735437</v>
+      </c>
+      <c r="G76">
+        <v>-0.06411896774932981</v>
+      </c>
+      <c r="H76">
+        <v>-0.05114092843007008</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.000532102945568761</v>
+        <v>0.003271672611705115</v>
       </c>
       <c r="C77">
-        <v>-0.114150408208593</v>
+        <v>0.1510711213705595</v>
       </c>
       <c r="D77">
-        <v>0.2058582442059602</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.8790894979006746</v>
+      </c>
+      <c r="E77">
+        <v>0.3376957405665231</v>
+      </c>
+      <c r="F77">
+        <v>-0.09908271609642733</v>
+      </c>
+      <c r="G77">
+        <v>0.1549015067680548</v>
+      </c>
+      <c r="H77">
+        <v>0.08437808879030388</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03083948550992157</v>
+        <v>0.02630879127788548</v>
       </c>
       <c r="C78">
-        <v>-0.09678318823198741</v>
+        <v>0.1097084657890228</v>
       </c>
       <c r="D78">
-        <v>0.1300558365437215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.003218144998264276</v>
+      </c>
+      <c r="E78">
+        <v>-0.100813168673227</v>
+      </c>
+      <c r="F78">
+        <v>0.05426339982117335</v>
+      </c>
+      <c r="G78">
+        <v>-0.08619210862583726</v>
+      </c>
+      <c r="H78">
+        <v>-0.02556663320361236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.08795739950680107</v>
+        <v>0.05371939301101714</v>
       </c>
       <c r="C79">
-        <v>-0.2841003505531808</v>
+        <v>0.2437934997230169</v>
       </c>
       <c r="D79">
-        <v>-0.6927196783287102</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.2168171385242995</v>
+      </c>
+      <c r="E79">
+        <v>0.3369883444682368</v>
+      </c>
+      <c r="F79">
+        <v>0.6114447919780684</v>
+      </c>
+      <c r="G79">
+        <v>0.4657045605073805</v>
+      </c>
+      <c r="H79">
+        <v>0.3288714017654989</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.002209271228141929</v>
+        <v>0.008964820019410343</v>
       </c>
       <c r="C80">
-        <v>-0.05253945035396256</v>
+        <v>0.05147783170696833</v>
       </c>
       <c r="D80">
-        <v>0.02497473680584219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02647346832190359</v>
+      </c>
+      <c r="E80">
+        <v>-0.05176909071169866</v>
+      </c>
+      <c r="F80">
+        <v>-0.01850195833337943</v>
+      </c>
+      <c r="G80">
+        <v>-0.05023296498463135</v>
+      </c>
+      <c r="H80">
+        <v>0.05128442006178099</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.07623850380194433</v>
+        <v>0.03079351866625015</v>
       </c>
       <c r="C81">
-        <v>-0.160092680266871</v>
+        <v>0.1588858359960629</v>
       </c>
       <c r="D81">
-        <v>-0.06914572901472334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.05300462519332415</v>
+      </c>
+      <c r="E81">
+        <v>0.1037084592883</v>
+      </c>
+      <c r="F81">
+        <v>0.008842159262708132</v>
+      </c>
+      <c r="G81">
+        <v>-0.07502801893752911</v>
+      </c>
+      <c r="H81">
+        <v>-0.05522333073041859</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1487023863986091</v>
+        <v>0.07553525535275454</v>
       </c>
       <c r="C82">
-        <v>-0.2765850657292594</v>
+        <v>0.2441441568897322</v>
       </c>
       <c r="D82">
-        <v>-0.03468819164943442</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.08053523136442456</v>
+      </c>
+      <c r="E82">
+        <v>0.1722414799629368</v>
+      </c>
+      <c r="F82">
+        <v>-0.1055517943166456</v>
+      </c>
+      <c r="G82">
+        <v>-0.1580392036128112</v>
+      </c>
+      <c r="H82">
+        <v>-0.09684404494956896</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.01470636645833375</v>
+        <v>-0.006070711889160024</v>
       </c>
       <c r="C83">
-        <v>-0.04802712122509419</v>
+        <v>0.01712860064090582</v>
       </c>
       <c r="D83">
-        <v>-0.003410072636434136</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.06861576633215075</v>
+      </c>
+      <c r="E83">
+        <v>0.1036147710778047</v>
+      </c>
+      <c r="F83">
+        <v>0.1818741364766035</v>
+      </c>
+      <c r="G83">
+        <v>-0.7103071391266017</v>
+      </c>
+      <c r="H83">
+        <v>0.5663433972819302</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.001417699813932528</v>
+        <v>-0.002799719857795233</v>
       </c>
       <c r="C84">
-        <v>-0.004383346914559666</v>
+        <v>0.02359981674844221</v>
       </c>
       <c r="D84">
-        <v>0.01034788123435481</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0186261311259778</v>
+      </c>
+      <c r="E84">
+        <v>-0.04389961174994959</v>
+      </c>
+      <c r="F84">
+        <v>0.05715658323470933</v>
+      </c>
+      <c r="G84">
+        <v>-0.0004203291258008577</v>
+      </c>
+      <c r="H84">
+        <v>-0.06146928176331351</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.09955440033953343</v>
+        <v>0.05463801167308471</v>
       </c>
       <c r="C85">
-        <v>-0.1718199891940817</v>
+        <v>0.1728182118400262</v>
       </c>
       <c r="D85">
-        <v>-0.0936863295477291</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.110490138400727</v>
+      </c>
+      <c r="E85">
+        <v>0.1016633483336218</v>
+      </c>
+      <c r="F85">
+        <v>0.003998268671132785</v>
+      </c>
+      <c r="G85">
+        <v>-0.01831475216782846</v>
+      </c>
+      <c r="H85">
+        <v>-0.04607148871288067</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02596038323357124</v>
+        <v>0.01625482101072937</v>
       </c>
       <c r="C86">
-        <v>-0.0221147709663693</v>
+        <v>0.05402766588439468</v>
       </c>
       <c r="D86">
-        <v>0.07313047178192272</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.06047415350168143</v>
+      </c>
+      <c r="E86">
+        <v>-0.04827245563796946</v>
+      </c>
+      <c r="F86">
+        <v>0.07468545119699047</v>
+      </c>
+      <c r="G86">
+        <v>-0.005024128806825082</v>
+      </c>
+      <c r="H86">
+        <v>-0.06493571751579566</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02099484549968457</v>
+        <v>0.01257528635103182</v>
       </c>
       <c r="C87">
-        <v>-0.05608993400392515</v>
+        <v>0.07925676750240017</v>
       </c>
       <c r="D87">
-        <v>0.1093393041937963</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.05797293543309944</v>
+      </c>
+      <c r="E87">
+        <v>-0.09970217038572329</v>
+      </c>
+      <c r="F87">
+        <v>0.08578965332215466</v>
+      </c>
+      <c r="G87">
+        <v>-0.03601374450601103</v>
+      </c>
+      <c r="H87">
+        <v>-0.04500037237615053</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03705098170556755</v>
+        <v>0.03393261848865217</v>
       </c>
       <c r="C88">
-        <v>-0.06619905473012079</v>
+        <v>0.07668217613647083</v>
       </c>
       <c r="D88">
-        <v>-0.001592256685081803</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.0166014819014475</v>
+      </c>
+      <c r="E88">
+        <v>-0.02231379264394317</v>
+      </c>
+      <c r="F88">
+        <v>0.001191706137980807</v>
+      </c>
+      <c r="G88">
+        <v>0.007443351062681368</v>
+      </c>
+      <c r="H88">
+        <v>-0.003592748728043385</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.3899569119887672</v>
+        <v>0.4014384027804005</v>
       </c>
       <c r="C89">
-        <v>0.23100096177936</v>
+        <v>-0.1552186556497646</v>
       </c>
       <c r="D89">
-        <v>0.001650156708101143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04673150961196488</v>
+      </c>
+      <c r="E89">
+        <v>-0.01025304848477759</v>
+      </c>
+      <c r="F89">
+        <v>0.1081286420657332</v>
+      </c>
+      <c r="G89">
+        <v>-0.08401312110222514</v>
+      </c>
+      <c r="H89">
+        <v>0.06419774381229479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.3072255855817081</v>
+        <v>0.3224760649945736</v>
       </c>
       <c r="C90">
-        <v>0.1628883883257432</v>
+        <v>-0.09622511800478613</v>
       </c>
       <c r="D90">
-        <v>0.06427338391089908</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03318184616098234</v>
+      </c>
+      <c r="E90">
+        <v>-0.03119140585182668</v>
+      </c>
+      <c r="F90">
+        <v>-0.005092262919476676</v>
+      </c>
+      <c r="G90">
+        <v>-0.033821437903575</v>
+      </c>
+      <c r="H90">
+        <v>-0.03136166222590563</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1089825154119673</v>
+        <v>0.06496996788336211</v>
       </c>
       <c r="C91">
-        <v>-0.2179801411731485</v>
+        <v>0.194085178923274</v>
       </c>
       <c r="D91">
-        <v>-0.1000863814210914</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.05524125967557587</v>
+      </c>
+      <c r="E91">
+        <v>0.1549655180967587</v>
+      </c>
+      <c r="F91">
+        <v>0.00833378890845838</v>
+      </c>
+      <c r="G91">
+        <v>-0.04203277019694779</v>
+      </c>
+      <c r="H91">
+        <v>-0.023791202802057</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.292096084078877</v>
+        <v>0.3365990248049912</v>
       </c>
       <c r="C92">
-        <v>0.2149743478178389</v>
+        <v>-0.1543829859971141</v>
       </c>
       <c r="D92">
-        <v>-0.04026569723466281</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.07080013899410124</v>
+      </c>
+      <c r="E92">
+        <v>0.02147806192678338</v>
+      </c>
+      <c r="F92">
+        <v>0.1162791008129659</v>
+      </c>
+      <c r="G92">
+        <v>0.07751091270624653</v>
+      </c>
+      <c r="H92">
+        <v>-0.09161778780644146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.3240250554100668</v>
+        <v>0.328779536133174</v>
       </c>
       <c r="C93">
-        <v>0.1746461195265271</v>
+        <v>-0.1170371503187672</v>
       </c>
       <c r="D93">
-        <v>-0.03356149072692991</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0276364789467875</v>
+      </c>
+      <c r="E93">
+        <v>0.01563564288932332</v>
+      </c>
+      <c r="F93">
+        <v>-0.0008001239767388461</v>
+      </c>
+      <c r="G93">
+        <v>0.03361336039062258</v>
+      </c>
+      <c r="H93">
+        <v>-0.02940624982837357</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1938098165566822</v>
+        <v>0.1202548803199285</v>
       </c>
       <c r="C94">
-        <v>-0.2656616589949022</v>
+        <v>0.2647949379627669</v>
       </c>
       <c r="D94">
-        <v>-0.09580001030696048</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.1517050902601006</v>
+      </c>
+      <c r="E94">
+        <v>0.2611116123732579</v>
+      </c>
+      <c r="F94">
+        <v>-0.1670159823806932</v>
+      </c>
+      <c r="G94">
+        <v>-0.1610252000226489</v>
+      </c>
+      <c r="H94">
+        <v>-0.2222737712320011</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.003748318215802759</v>
+        <v>0.01372747743169534</v>
       </c>
       <c r="C95">
-        <v>-0.06238619093100108</v>
+        <v>0.09309476422205175</v>
       </c>
       <c r="D95">
-        <v>0.09251265262162887</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1360365287589897</v>
+      </c>
+      <c r="E95">
+        <v>-0.02868961491558634</v>
+      </c>
+      <c r="F95">
+        <v>-0.03850267256586325</v>
+      </c>
+      <c r="G95">
+        <v>0.03233034416682769</v>
+      </c>
+      <c r="H95">
+        <v>0.0424388250352404</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.002054636870776083</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001317325212837306</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.002728571581810006</v>
+      </c>
+      <c r="E97">
+        <v>-0.003799559711082847</v>
+      </c>
+      <c r="F97">
+        <v>-0.0006208316584222691</v>
+      </c>
+      <c r="G97">
+        <v>0.002156339726175724</v>
+      </c>
+      <c r="H97">
+        <v>-0.005572962486760362</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1279387681643314</v>
+        <v>0.1336190604914681</v>
       </c>
       <c r="C98">
-        <v>-0.104631350219023</v>
+        <v>0.1557678918965561</v>
       </c>
       <c r="D98">
-        <v>0.1352374184306223</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04298555943332222</v>
+      </c>
+      <c r="E98">
+        <v>-0.1759581188043995</v>
+      </c>
+      <c r="F98">
+        <v>-0.2804203487937391</v>
+      </c>
+      <c r="G98">
+        <v>0.1580060446186473</v>
+      </c>
+      <c r="H98">
+        <v>0.2504336063132905</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.0009013640611353266</v>
+        <v>0.002779384451891136</v>
       </c>
       <c r="C101">
-        <v>-0.02687146641458129</v>
+        <v>0.04907840892795347</v>
       </c>
       <c r="D101">
-        <v>0.06009562287730627</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.007780504333218798</v>
+      </c>
+      <c r="E101">
+        <v>-0.1190308212274698</v>
+      </c>
+      <c r="F101">
+        <v>0.05755509773724649</v>
+      </c>
+      <c r="G101">
+        <v>-0.02569307469125214</v>
+      </c>
+      <c r="H101">
+        <v>0.05744602230907389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.05970896295208972</v>
+        <v>0.01880242230273575</v>
       </c>
       <c r="C102">
-        <v>-0.1546745289738701</v>
+        <v>0.1136342697919087</v>
       </c>
       <c r="D102">
-        <v>0.01074731197095639</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.02957078809383794</v>
+      </c>
+      <c r="E102">
+        <v>0.08474403348630738</v>
+      </c>
+      <c r="F102">
+        <v>-0.06887884635366134</v>
+      </c>
+      <c r="G102">
+        <v>-0.06460183526936775</v>
+      </c>
+      <c r="H102">
+        <v>-0.03355920011030882</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
